--- a/biology/Zoologie/Carnufex/Carnufex.xlsx
+++ b/biology/Zoologie/Carnufex/Carnufex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carnufex caroliensis
 Carnufex est un genre éteint de crocodylomorphes du début du Trias supérieur (Carnien) de Caroline du Nord. L'espèce type et seule espèce, Carnufex caroliensis (littéralement, « le boucher de Caroline »), a été décrite en 2015 par Lindsay E. Zanno (d) et son équipe. 
@@ -512,7 +524,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux spécimens fossiles sont connus, l'holotype NCSM 21558 composé d'un crâne et d'éléments du squelette, et un humérus répertorié sous le numéro NCSM 21623. Les spécimens proviennent de la formation géologique de Pekin datée du Carnien (environ 231 millions années).
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carnufex caroliensis était un carnassier d'une longueur d'environ 3 mètres pour une hauteur de 1,50 mètre, pouvant adopter une position bipède[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carnufex caroliensis était un carnassier d'une longueur d'environ 3 mètres pour une hauteur de 1,50 mètre, pouvant adopter une position bipède,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Carnufex  est un genre primitif de crocodylomorphes, groupe incluant les suchiens plus dérivés que les Rauisuchidae. Il est l'un des deux taxons les plus basaux. Lindsay Zanno et ses collègues ont mené une analyse phylogénétique, incluant les taxons basaux comme  Mesosuchus  et dérivés, tels que  Protosuchus  et  Alligator. Le cladogramme suivant, incluant les Loricata et les Crocodylomorpha, est extrait de leur étude[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Carnufex  est un genre primitif de crocodylomorphes, groupe incluant les suchiens plus dérivés que les Rauisuchidae. Il est l'un des deux taxons les plus basaux. Lindsay Zanno et ses collègues ont mené une analyse phylogénétique, incluant les taxons basaux comme  Mesosuchus  et dérivés, tels que  Protosuchus  et  Alligator. Le cladogramme suivant, incluant les Loricata et les Crocodylomorpha, est extrait de leur étude :
 </t>
         </is>
       </c>
